--- a/Упражнения ИРДН/упражнения_ИРДН_ESP.xlsx
+++ b/Упражнения ИРДН/упражнения_ИРДН_ESP.xlsx
@@ -32,14 +32,16 @@
     <definedName name="Kdegr_" localSheetId="0">Упражнение!#REF!</definedName>
     <definedName name="KsepGasSep_" localSheetId="0">Упражнение!$C$39</definedName>
     <definedName name="mu">Упражнение!$D$48</definedName>
-    <definedName name="N_" localSheetId="0">Упражнение!$C$45</definedName>
+    <definedName name="N_" localSheetId="0">Упражнение!$C$47</definedName>
     <definedName name="NumStage_" localSheetId="0">Упражнение!$C$38</definedName>
     <definedName name="Pb_" localSheetId="0">Упражнение!$C$11</definedName>
     <definedName name="Pbuf_" localSheetId="0">Упражнение!$C$24</definedName>
+    <definedName name="Pdis">Упражнение!$L$49</definedName>
     <definedName name="Pdis_" localSheetId="0">Упражнение!$C$29</definedName>
-    <definedName name="PI_" localSheetId="0">Упражнение!$C$42</definedName>
+    <definedName name="PI_" localSheetId="0">Упражнение!$C$45</definedName>
     <definedName name="Pintake_" localSheetId="0">Упражнение!$C$25</definedName>
-    <definedName name="Pres_" localSheetId="0">Упражнение!$C$41</definedName>
+    <definedName name="PKsep">Упражнение!$C$40</definedName>
+    <definedName name="Pres_" localSheetId="0">Упражнение!$C$44</definedName>
     <definedName name="PumpID_" localSheetId="0">Упражнение!$C$35</definedName>
     <definedName name="Pwf_" localSheetId="0">Упражнение!$C$27</definedName>
     <definedName name="Pwf1_" localSheetId="0">Упражнение!#REF!</definedName>
@@ -67,8 +69,9 @@
     <definedName name="testRange">Фонтан!$H$45:$H$61,Фонтан!$J$45:$J$61</definedName>
     <definedName name="testRange1">Фонтан!$L$45:$M$62</definedName>
     <definedName name="testRange2">Фонтан!$N$45:$O$66</definedName>
-    <definedName name="Tgrad" localSheetId="0">Упражнение!$C$43</definedName>
+    <definedName name="Tgrad" localSheetId="0">Упражнение!$C$46</definedName>
     <definedName name="Tintake_" localSheetId="0">Упражнение!$C$26</definedName>
+    <definedName name="TKsep">Упражнение!$C$41</definedName>
     <definedName name="Tres_" localSheetId="0">Упражнение!$C$12</definedName>
     <definedName name="Udl_" localSheetId="0">Упражнение!$C$18</definedName>
     <definedName name="wc_" localSheetId="0">Упражнение!$C$14</definedName>
@@ -136,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2824" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2835" uniqueCount="354">
   <si>
     <t>Конструкция</t>
   </si>
@@ -1182,6 +1185,24 @@
   <si>
     <t>Упражнение</t>
   </si>
+  <si>
+    <t>Давление сепарации</t>
+  </si>
+  <si>
+    <t>Температура сепарации</t>
+  </si>
+  <si>
+    <t>Снизу вверх</t>
+  </si>
+  <si>
+    <t>Сверху вниз</t>
+  </si>
+  <si>
+    <t>Давление на выходе</t>
+  </si>
+  <si>
+    <t>Давление на входе</t>
+  </si>
 </sst>
 </file>
 
@@ -1356,7 +1377,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1791,14 +1812,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </left>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1811,7 +1845,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1985,7 +2019,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2005,12 +2038,29 @@
     <xf numFmtId="2" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2221,9 +2271,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2334,7 +2381,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8.75</c:v>
@@ -2423,8 +2470,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="300663360"/>
-        <c:axId val="300663936"/>
+        <c:axId val="228180544"/>
+        <c:axId val="228181120"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2474,7 +2521,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8.75</c:v>
@@ -2563,11 +2610,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="300665088"/>
-        <c:axId val="300664512"/>
+        <c:axId val="228182272"/>
+        <c:axId val="228181696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="300663360"/>
+        <c:axId val="228180544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2660,15 +2707,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300663936"/>
+        <c:crossAx val="228181120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="300663936"/>
+        <c:axId val="228181120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="450"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2765,12 +2811,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300663360"/>
+        <c:crossAx val="228180544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="300664512"/>
+        <c:axId val="228181696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2850,12 +2896,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300665088"/>
+        <c:crossAx val="228182272"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="300665088"/>
+        <c:axId val="228182272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2865,7 +2911,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="300664512"/>
+        <c:crossAx val="228181696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3052,7 +3098,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8.75</c:v>
@@ -3141,8 +3187,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="300667392"/>
-        <c:axId val="300667968"/>
+        <c:axId val="228184576"/>
+        <c:axId val="228185152"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -3192,7 +3238,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8.75</c:v>
@@ -3281,11 +3327,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="300669120"/>
-        <c:axId val="300668544"/>
+        <c:axId val="228186304"/>
+        <c:axId val="228185728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="300667392"/>
+        <c:axId val="228184576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3378,15 +3424,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300667968"/>
+        <c:crossAx val="228185152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="300667968"/>
+        <c:axId val="228185152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="450"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3482,12 +3527,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300667392"/>
+        <c:crossAx val="228184576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="300668544"/>
+        <c:axId val="228185728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3566,12 +3611,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300669120"/>
+        <c:crossAx val="228186304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="300669120"/>
+        <c:axId val="228186304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3581,7 +3626,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="300668544"/>
+        <c:crossAx val="228185728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3719,7 +3764,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15953052843922169"/>
+          <c:y val="0.10522518309682886"/>
+          <c:w val="0.72657504427405961"/>
+          <c:h val="0.71951345838854497"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -3768,7 +3823,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8.75</c:v>
@@ -3857,8 +3912,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="178471488"/>
-        <c:axId val="178472064"/>
+        <c:axId val="173163072"/>
+        <c:axId val="173163648"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -3908,7 +3963,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8.75</c:v>
@@ -3997,11 +4052,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="178473216"/>
-        <c:axId val="178472640"/>
+        <c:axId val="173164800"/>
+        <c:axId val="173164224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="178471488"/>
+        <c:axId val="173163072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4094,12 +4149,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178472064"/>
+        <c:crossAx val="173163648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="178472064"/>
+        <c:axId val="173163648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4197,12 +4252,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178471488"/>
+        <c:crossAx val="173163072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="178472640"/>
+        <c:axId val="173164224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4212,12 +4267,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178473216"/>
+        <c:crossAx val="173164800"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="178473216"/>
+        <c:axId val="173164800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4227,7 +4282,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178472640"/>
+        <c:crossAx val="173164224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4309,6 +4364,932 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Давление на входе от дебита</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15953052843922169"/>
+          <c:y val="0.10522518309682886"/>
+          <c:w val="0.72657504427405961"/>
+          <c:h val="0.71951345838854497"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Упражнение!$I$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Давление на выходе</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Упражнение!$C$52:$C$72</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>113.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>122.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>131.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>148.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>157.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>166.25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>175</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Упражнение!$I$52:$I$72</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-93CB-4A0D-85A4-391A51FA2C35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="173167680"/>
+        <c:axId val="173168256"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="173167680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Дебит, м3/сут</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="173168256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="173168256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>Давление, атм </a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="173167680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Давление на выходе от дебита</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15953052843922169"/>
+          <c:y val="0.10522518309682886"/>
+          <c:w val="0.72657504427405961"/>
+          <c:h val="0.71951345838854497"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Упражнение!$L$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Давление на входе</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Упражнение!$C$52:$C$72</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>113.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>122.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>131.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>148.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>157.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>166.25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>175</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Упражнение!$L$52:$L$72</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="143228928"/>
+        <c:axId val="173169984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="143228928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Дебит, м3/сут</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="173169984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="173169984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>Давление, атм </a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="143228928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -4716,11 +5697,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="178477824"/>
-        <c:axId val="178478400"/>
+        <c:axId val="143232384"/>
+        <c:axId val="143232960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="178477824"/>
+        <c:axId val="143232384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4765,12 +5746,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178478400"/>
+        <c:crossAx val="143232960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="178478400"/>
+        <c:axId val="143232960"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:min val="0"/>
@@ -4815,7 +5796,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178477824"/>
+        <c:crossAx val="143232384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4892,7 +5873,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -5346,11 +6327,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="301335680"/>
-        <c:axId val="301336256"/>
+        <c:axId val="143234688"/>
+        <c:axId val="143235264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="301335680"/>
+        <c:axId val="143234688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5395,12 +6376,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301336256"/>
+        <c:crossAx val="143235264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="301336256"/>
+        <c:axId val="143235264"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:min val="0"/>
@@ -5445,7 +6426,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301335680"/>
+        <c:crossAx val="143234688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5522,7 +6503,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -5927,11 +6908,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="301337984"/>
-        <c:axId val="301338560"/>
+        <c:axId val="143204352"/>
+        <c:axId val="143204928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="301337984"/>
+        <c:axId val="143204352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5976,12 +6957,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301338560"/>
+        <c:crossAx val="143204928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="301338560"/>
+        <c:axId val="143204928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6026,7 +7007,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301337984"/>
+        <c:crossAx val="143204352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7247,16 +8228,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>345800</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>71946</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>603536</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>139182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>409516</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>100852</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>62134</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7279,16 +8260,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>135832</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>113260</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247891</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>1202</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>111979</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>156484</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>324891</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>55632</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7311,16 +8292,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>169257</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>22007</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>225287</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>145273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>584544</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>34615</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1838</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>12204</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7420,6 +8401,70 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>560963</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>68637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>268942</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>145675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>292023</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>1401</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Диаграмма 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8041,6 +9086,7 @@
       <definedName name="ESP_maxRate_m3day"/>
       <definedName name="ESP_name"/>
       <definedName name="IPR_PI_sm3dayatm"/>
+      <definedName name="MF_GasFraction_d"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -8346,15 +9392,301 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Стандартная">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Стандартная">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Стандартная">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист9">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A2:K182"/>
+  <dimension ref="A2:L182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -8724,60 +10056,83 @@
       </c>
     </row>
     <row r="39" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="62" t="s">
+      <c r="B39" s="72" t="s">
         <v>334</v>
       </c>
-      <c r="C39" s="63">
-        <v>0</v>
-      </c>
+      <c r="C39" s="62">
+        <v>0.1</v>
+      </c>
+      <c r="D39" s="53"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="52" t="s">
+      <c r="B40" s="72" t="s">
+        <v>348</v>
+      </c>
+      <c r="C40" s="68">
+        <v>80</v>
+      </c>
+      <c r="D40" s="53" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="72" t="s">
+        <v>349</v>
+      </c>
+      <c r="C41" s="68">
+        <v>80</v>
+      </c>
+      <c r="D41" s="53" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="52" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B41" s="53" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="53" t="s">
         <v>336</v>
       </c>
-      <c r="C41" s="54">
+      <c r="C44" s="54">
         <v>250</v>
       </c>
-      <c r="D41" s="53" t="s">
+      <c r="D44" s="53" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B42" s="53" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="53" t="s">
         <v>337</v>
       </c>
-      <c r="C42" s="69">
+      <c r="C45" s="68">
         <f>[1]!IPR_PI_sm3dayatm(Q_,Pwf_,Pres_,wc_,Pb_)</f>
         <v>0.30594092089479125</v>
       </c>
-      <c r="D42" s="53" t="s">
+      <c r="D45" s="53" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B43" s="53" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B46" s="53" t="s">
         <v>338</v>
       </c>
-      <c r="C43" s="54">
+      <c r="C46" s="54">
         <v>3</v>
       </c>
-      <c r="D43" s="53" t="s">
+      <c r="D46" s="53" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B45" s="53" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B47" s="53" t="s">
         <v>303</v>
       </c>
-      <c r="C45" s="54">
+      <c r="C47" s="54">
         <v>20</v>
       </c>
-      <c r="D45" s="53"/>
+      <c r="D47" s="53"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -8790,20 +10145,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>340</v>
       </c>
       <c r="C49" t="s">
         <v>339</v>
       </c>
-      <c r="D49" s="70">
-        <f>GasFraction(Pintake_,Tintake_,0)</f>
-        <v>0.47065884395156121</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="1:8" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="D49" s="73">
+        <f>[1]!MF_GasFraction_d(Pintake_,Tintake_,wc_,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_,,,,KsepGasSep_,PKsep,TKsep)</f>
+        <v>0.23116299702262871</v>
+      </c>
+      <c r="J49" s="53" t="s">
+        <v>352</v>
+      </c>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="G50" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="H50" s="77"/>
+      <c r="I50" s="78"/>
+      <c r="J50" s="79" t="s">
+        <v>351</v>
+      </c>
+      <c r="K50" s="79"/>
+      <c r="L50" s="79"/>
+    </row>
+    <row r="51" spans="1:12" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C51" s="53" t="s">
         <v>174</v>
       </c>
@@ -8816,300 +10189,396 @@
       <c r="F51" s="57" t="s">
         <v>344</v>
       </c>
-      <c r="G51" s="66" t="s">
+      <c r="G51" s="65" t="s">
         <v>345</v>
       </c>
-      <c r="H51" s="66" t="s">
+      <c r="H51" s="65" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="67">
-        <v>10</v>
-      </c>
-      <c r="D52" s="64"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
-    </row>
-    <row r="53" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="67">
+      <c r="I51" s="75" t="s">
+        <v>352</v>
+      </c>
+      <c r="J51" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="K51" s="65" t="s">
+        <v>346</v>
+      </c>
+      <c r="L51" s="75" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="66">
+        <v>1</v>
+      </c>
+      <c r="D52" s="63"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="74"/>
+      <c r="J52" s="74"/>
+      <c r="K52" s="74"/>
+      <c r="L52" s="74"/>
+    </row>
+    <row r="53" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="66">
         <f>B93+Qmax/20</f>
         <v>8.75</v>
       </c>
-      <c r="D53" s="64"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
-    </row>
-    <row r="54" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="67">
-        <f t="shared" ref="C54" si="0">C53+Qmax/20</f>
+      <c r="D53" s="63"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="74"/>
+      <c r="J53" s="74"/>
+      <c r="K53" s="74"/>
+      <c r="L53" s="74"/>
+    </row>
+    <row r="54" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="66">
+        <f t="shared" ref="C54:C72" si="0">C53+Qmax/20</f>
         <v>17.5</v>
       </c>
-      <c r="D54" s="64"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-    </row>
-    <row r="55" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="67">
-        <f t="shared" ref="C55" si="1">C54+Qmax/20</f>
+      <c r="D54" s="63"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="74"/>
+      <c r="J54" s="74"/>
+      <c r="K54" s="74"/>
+      <c r="L54" s="74"/>
+    </row>
+    <row r="55" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="66">
+        <f t="shared" si="0"/>
         <v>26.25</v>
       </c>
-      <c r="D55" s="64"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-    </row>
-    <row r="56" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="67">
-        <f t="shared" ref="C56" si="2">C55+Qmax/20</f>
+      <c r="D55" s="63"/>
+      <c r="E55" s="64"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="74"/>
+      <c r="J55" s="74"/>
+      <c r="K55" s="74"/>
+      <c r="L55" s="74"/>
+    </row>
+    <row r="56" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="66">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D56" s="64"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="65"/>
-      <c r="G56" s="65"/>
-      <c r="H56" s="65"/>
-    </row>
-    <row r="57" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="67">
-        <f t="shared" ref="C57" si="3">C56+Qmax/20</f>
+      <c r="D56" s="63"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="74"/>
+      <c r="J56" s="74"/>
+      <c r="K56" s="74"/>
+      <c r="L56" s="74"/>
+    </row>
+    <row r="57" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="66">
+        <f t="shared" si="0"/>
         <v>43.75</v>
       </c>
-      <c r="D57" s="64"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-    </row>
-    <row r="58" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C58" s="67">
-        <f t="shared" ref="C58" si="4">C57+Qmax/20</f>
+      <c r="D57" s="63"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="74"/>
+      <c r="J57" s="74"/>
+      <c r="K57" s="74"/>
+      <c r="L57" s="74"/>
+    </row>
+    <row r="58" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="66">
+        <f t="shared" si="0"/>
         <v>52.5</v>
       </c>
-      <c r="D58" s="64"/>
-      <c r="E58" s="65"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="65"/>
-      <c r="H58" s="65"/>
-    </row>
-    <row r="59" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C59" s="67">
-        <f t="shared" ref="C59" si="5">C58+Qmax/20</f>
+      <c r="D58" s="63"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="74"/>
+      <c r="J58" s="74"/>
+      <c r="K58" s="74"/>
+      <c r="L58" s="74"/>
+    </row>
+    <row r="59" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="66">
+        <f t="shared" si="0"/>
         <v>61.25</v>
       </c>
-      <c r="D59" s="64"/>
-      <c r="E59" s="65"/>
-      <c r="F59" s="65"/>
-      <c r="G59" s="65"/>
-      <c r="H59" s="65"/>
-    </row>
-    <row r="60" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C60" s="67">
-        <f t="shared" ref="C60" si="6">C59+Qmax/20</f>
+      <c r="D59" s="63"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="74"/>
+      <c r="J59" s="74"/>
+      <c r="K59" s="74"/>
+      <c r="L59" s="74"/>
+    </row>
+    <row r="60" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="66">
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="D60" s="64"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="65"/>
-      <c r="G60" s="65"/>
-      <c r="H60" s="65"/>
-    </row>
-    <row r="61" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C61" s="67">
-        <f t="shared" ref="C61" si="7">C60+Qmax/20</f>
+      <c r="D60" s="63"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="74"/>
+      <c r="J60" s="74"/>
+      <c r="K60" s="74"/>
+      <c r="L60" s="74"/>
+    </row>
+    <row r="61" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="66">
+        <f t="shared" si="0"/>
         <v>78.75</v>
       </c>
-      <c r="D61" s="64"/>
-      <c r="E61" s="65"/>
-      <c r="F61" s="65"/>
-      <c r="G61" s="65"/>
-      <c r="H61" s="65"/>
-    </row>
-    <row r="62" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C62" s="67">
-        <f t="shared" ref="C62" si="8">C61+Qmax/20</f>
+      <c r="D61" s="63"/>
+      <c r="E61" s="64"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="64"/>
+      <c r="H61" s="64"/>
+      <c r="I61" s="74"/>
+      <c r="J61" s="74"/>
+      <c r="K61" s="74"/>
+      <c r="L61" s="74"/>
+    </row>
+    <row r="62" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="66">
+        <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
-      <c r="D62" s="64"/>
-      <c r="E62" s="65"/>
-      <c r="F62" s="65"/>
-      <c r="G62" s="65"/>
-      <c r="H62" s="65"/>
-    </row>
-    <row r="63" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="67">
-        <f t="shared" ref="C63" si="9">C62+Qmax/20</f>
+      <c r="D62" s="63"/>
+      <c r="E62" s="64"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="74"/>
+      <c r="J62" s="74"/>
+      <c r="K62" s="74"/>
+      <c r="L62" s="74"/>
+    </row>
+    <row r="63" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="66">
+        <f t="shared" si="0"/>
         <v>96.25</v>
       </c>
-      <c r="D63" s="64"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="65"/>
-    </row>
-    <row r="64" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C64" s="67">
-        <f t="shared" ref="C64" si="10">C63+Qmax/20</f>
+      <c r="D63" s="63"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="74"/>
+      <c r="J63" s="74"/>
+      <c r="K63" s="74"/>
+      <c r="L63" s="74"/>
+    </row>
+    <row r="64" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="66">
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="D64" s="64"/>
-      <c r="E64" s="65"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="65"/>
-      <c r="H64" s="65"/>
-    </row>
-    <row r="65" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C65" s="67">
-        <f t="shared" ref="C65" si="11">C64+Qmax/20</f>
+      <c r="D64" s="63"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="64"/>
+      <c r="I64" s="74"/>
+      <c r="J64" s="74"/>
+      <c r="K64" s="74"/>
+      <c r="L64" s="74"/>
+    </row>
+    <row r="65" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="66">
+        <f t="shared" si="0"/>
         <v>113.75</v>
       </c>
-      <c r="D65" s="64"/>
-      <c r="E65" s="65"/>
-      <c r="F65" s="65"/>
-      <c r="G65" s="65"/>
-      <c r="H65" s="65"/>
-    </row>
-    <row r="66" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="67">
-        <f t="shared" ref="C66" si="12">C65+Qmax/20</f>
+      <c r="D65" s="63"/>
+      <c r="E65" s="64"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="64"/>
+      <c r="H65" s="64"/>
+      <c r="I65" s="74"/>
+      <c r="J65" s="74"/>
+      <c r="K65" s="74"/>
+      <c r="L65" s="74"/>
+    </row>
+    <row r="66" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="66">
+        <f t="shared" si="0"/>
         <v>122.5</v>
       </c>
-      <c r="D66" s="64"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="65"/>
-      <c r="H66" s="65"/>
-    </row>
-    <row r="67" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C67" s="67">
-        <f t="shared" ref="C67" si="13">C66+Qmax/20</f>
+      <c r="D66" s="63"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="74"/>
+      <c r="J66" s="74"/>
+      <c r="K66" s="74"/>
+      <c r="L66" s="74"/>
+    </row>
+    <row r="67" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="66">
+        <f t="shared" si="0"/>
         <v>131.25</v>
       </c>
-      <c r="D67" s="64"/>
-      <c r="E67" s="65"/>
-      <c r="F67" s="65"/>
-      <c r="G67" s="65"/>
-      <c r="H67" s="65"/>
-    </row>
-    <row r="68" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="67">
-        <f t="shared" ref="C68" si="14">C67+Qmax/20</f>
+      <c r="D67" s="63"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="64"/>
+      <c r="I67" s="74"/>
+      <c r="J67" s="74"/>
+      <c r="K67" s="74"/>
+      <c r="L67" s="74"/>
+    </row>
+    <row r="68" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="66">
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="D68" s="64"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="65"/>
-    </row>
-    <row r="69" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="67">
-        <f t="shared" ref="C69" si="15">C68+Qmax/20</f>
+      <c r="D68" s="63"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="64"/>
+      <c r="I68" s="74"/>
+      <c r="J68" s="74"/>
+      <c r="K68" s="74"/>
+      <c r="L68" s="74"/>
+    </row>
+    <row r="69" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="66">
+        <f t="shared" si="0"/>
         <v>148.75</v>
       </c>
-      <c r="D69" s="64"/>
-      <c r="E69" s="65"/>
-      <c r="F69" s="65"/>
-      <c r="G69" s="65"/>
-      <c r="H69" s="65"/>
-    </row>
-    <row r="70" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C70" s="67">
-        <f t="shared" ref="C70" si="16">C69+Qmax/20</f>
+      <c r="D69" s="63"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="64"/>
+      <c r="I69" s="74"/>
+      <c r="J69" s="74"/>
+      <c r="K69" s="74"/>
+      <c r="L69" s="74"/>
+    </row>
+    <row r="70" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="66">
+        <f t="shared" si="0"/>
         <v>157.5</v>
       </c>
-      <c r="D70" s="64"/>
-      <c r="E70" s="65"/>
-      <c r="F70" s="65"/>
-      <c r="G70" s="65"/>
-      <c r="H70" s="65"/>
-    </row>
-    <row r="71" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C71" s="67">
-        <f t="shared" ref="C71" si="17">C70+Qmax/20</f>
+      <c r="D70" s="63"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="64"/>
+      <c r="G70" s="64"/>
+      <c r="H70" s="64"/>
+      <c r="I70" s="74"/>
+      <c r="J70" s="74"/>
+      <c r="K70" s="74"/>
+      <c r="L70" s="74"/>
+    </row>
+    <row r="71" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C71" s="66">
+        <f t="shared" si="0"/>
         <v>166.25</v>
       </c>
-      <c r="D71" s="64"/>
-      <c r="E71" s="65"/>
-      <c r="F71" s="65"/>
-      <c r="G71" s="65"/>
-      <c r="H71" s="65"/>
-    </row>
-    <row r="72" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="67">
-        <f t="shared" ref="C72" si="18">C71+Qmax/20</f>
+      <c r="D71" s="63"/>
+      <c r="E71" s="64"/>
+      <c r="F71" s="64"/>
+      <c r="G71" s="64"/>
+      <c r="H71" s="64"/>
+      <c r="I71" s="74"/>
+      <c r="J71" s="74"/>
+      <c r="K71" s="74"/>
+      <c r="L71" s="74"/>
+    </row>
+    <row r="72" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="66">
+        <f t="shared" si="0"/>
         <v>175</v>
       </c>
-      <c r="D72" s="64"/>
-      <c r="E72" s="65"/>
-      <c r="F72" s="65"/>
-      <c r="G72" s="65"/>
-      <c r="H72" s="65"/>
-    </row>
-    <row r="73" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C73" s="72"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="73"/>
-      <c r="F73" s="73"/>
-      <c r="G73" s="73"/>
-      <c r="H73" s="71"/>
-    </row>
-    <row r="74" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="72"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="73"/>
-      <c r="F74" s="73"/>
-      <c r="G74" s="73"/>
-      <c r="H74" s="71"/>
-    </row>
-    <row r="75" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="72"/>
-      <c r="D75" s="72"/>
-      <c r="E75" s="73"/>
-      <c r="F75" s="73"/>
-      <c r="G75" s="73"/>
-      <c r="H75" s="71"/>
-    </row>
-    <row r="76" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C76" s="72"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="73"/>
-      <c r="F76" s="73"/>
-      <c r="G76" s="73"/>
-      <c r="H76" s="71"/>
-    </row>
-    <row r="77" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C77" s="72"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="73"/>
-      <c r="F77" s="73"/>
-      <c r="G77" s="73"/>
-      <c r="H77" s="71"/>
-    </row>
-    <row r="78" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C78" s="72"/>
-      <c r="D78" s="72"/>
-      <c r="E78" s="73"/>
-      <c r="F78" s="73"/>
-      <c r="G78" s="73"/>
-      <c r="H78" s="71"/>
-    </row>
-    <row r="79" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C79" s="72"/>
-      <c r="D79" s="72"/>
-      <c r="E79" s="73"/>
-      <c r="F79" s="73"/>
-      <c r="G79" s="73"/>
-      <c r="H79" s="71"/>
-    </row>
-    <row r="80" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="74"/>
+      <c r="J72" s="74"/>
+      <c r="K72" s="74"/>
+      <c r="L72" s="74"/>
+    </row>
+    <row r="73" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C73" s="70"/>
+      <c r="D73" s="70"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="71"/>
+      <c r="H73" s="69"/>
+    </row>
+    <row r="74" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="70"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="71"/>
+      <c r="H74" s="69"/>
+    </row>
+    <row r="75" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C75" s="70"/>
+      <c r="D75" s="70"/>
+      <c r="E75" s="71"/>
+      <c r="F75" s="71"/>
+      <c r="G75" s="71"/>
+      <c r="H75" s="69"/>
+    </row>
+    <row r="76" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C76" s="70"/>
+      <c r="D76" s="70"/>
+      <c r="E76" s="71"/>
+      <c r="F76" s="71"/>
+      <c r="G76" s="71"/>
+      <c r="H76" s="69"/>
+    </row>
+    <row r="77" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C77" s="70"/>
+      <c r="D77" s="70"/>
+      <c r="E77" s="71"/>
+      <c r="F77" s="71"/>
+      <c r="G77" s="71"/>
+      <c r="H77" s="69"/>
+    </row>
+    <row r="78" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C78" s="70"/>
+      <c r="D78" s="70"/>
+      <c r="E78" s="71"/>
+      <c r="F78" s="71"/>
+      <c r="G78" s="71"/>
+      <c r="H78" s="69"/>
+    </row>
+    <row r="79" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C79" s="70"/>
+      <c r="D79" s="70"/>
+      <c r="E79" s="71"/>
+      <c r="F79" s="71"/>
+      <c r="G79" s="71"/>
+      <c r="H79" s="69"/>
+    </row>
+    <row r="80" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="81" spans="5:5" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="83" spans="5:5" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="84" spans="5:5" outlineLevel="1" x14ac:dyDescent="0.2"/>
@@ -9153,9 +10622,13 @@
       </c>
     </row>
     <row r="182" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K182" s="68"/>
+      <c r="K182" s="67"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:L50"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -9198,29 +10671,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74" t="s">
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="V2" s="75" t="s">
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="V2" s="81" t="s">
         <v>163</v>
       </c>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
     </row>
     <row r="3" spans="2:25" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="48" t="s">
@@ -64957,15 +66430,15 @@
       <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="77" t="s">
+      <c r="J1" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="78"/>
-      <c r="L1" s="83">
+      <c r="K1" s="84"/>
+      <c r="L1" s="89">
         <f>AV7-1</f>
         <v>-1</v>
       </c>
-      <c r="M1" s="84"/>
+      <c r="M1" s="90"/>
       <c r="Q1" t="b">
         <v>0</v>
       </c>
@@ -64977,15 +66450,15 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="79" t="s">
+      <c r="J2" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="80"/>
-      <c r="L2" s="81">
+      <c r="K2" s="86"/>
+      <c r="L2" s="87">
         <f>AY11-1</f>
         <v>-1</v>
       </c>
-      <c r="M2" s="82"/>
+      <c r="M2" s="88"/>
       <c r="T2" s="20" t="s">
         <v>20</v>
       </c>
@@ -64999,31 +66472,31 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="100"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="106"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="101">
+      <c r="B5" s="107">
         <v>1</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="103"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="109"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="105"/>
-      <c r="D6" s="106"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="112"/>
     </row>
     <row r="7" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -65032,14 +66505,14 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="D8" s="107" t="s">
+      <c r="B8" s="114"/>
+      <c r="D8" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="108"/>
+      <c r="E8" s="114"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
@@ -65150,10 +66623,10 @@
     </row>
     <row r="17" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="109" t="s">
+      <c r="A18" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="110"/>
+      <c r="B18" s="116"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
@@ -65181,10 +66654,10 @@
     </row>
     <row r="22" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="109" t="s">
+      <c r="A23" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="110"/>
+      <c r="B23" s="116"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
@@ -65306,99 +66779,99 @@
       </c>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A42" s="97" t="s">
+      <c r="A42" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="98"/>
-      <c r="C42" s="87" t="s">
+      <c r="B42" s="104"/>
+      <c r="C42" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="89"/>
-      <c r="I42" s="90" t="s">
+      <c r="D42" s="94"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="94"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="J42" s="91"/>
-      <c r="L42" s="76" t="s">
+      <c r="J42" s="97"/>
+      <c r="L42" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="M42" s="76"/>
-      <c r="N42" s="76" t="s">
+      <c r="M42" s="82"/>
+      <c r="N42" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="O42" s="76"/>
-      <c r="P42" s="76" t="s">
+      <c r="O42" s="82"/>
+      <c r="P42" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="Q42" s="76"/>
-      <c r="R42" s="76" t="s">
+      <c r="Q42" s="82"/>
+      <c r="R42" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="S42" s="76"/>
-      <c r="T42" s="76" t="s">
+      <c r="S42" s="82"/>
+      <c r="T42" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="U42" s="76"/>
-      <c r="V42" s="76" t="s">
+      <c r="U42" s="82"/>
+      <c r="V42" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="W42" s="76"/>
-      <c r="X42" s="76" t="s">
+      <c r="W42" s="82"/>
+      <c r="X42" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="Y42" s="76"/>
-      <c r="Z42" s="76" t="s">
+      <c r="Y42" s="82"/>
+      <c r="Z42" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="AA42" s="76"/>
-      <c r="AB42" s="76" t="s">
+      <c r="AA42" s="82"/>
+      <c r="AB42" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="AC42" s="76"/>
-      <c r="AD42" s="76" t="s">
+      <c r="AC42" s="82"/>
+      <c r="AD42" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="AE42" s="76"/>
-      <c r="AF42" s="76" t="s">
+      <c r="AE42" s="82"/>
+      <c r="AF42" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="AG42" s="76"/>
-      <c r="AH42" s="76" t="s">
+      <c r="AG42" s="82"/>
+      <c r="AH42" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="AI42" s="76"/>
-      <c r="AJ42" s="76" t="s">
+      <c r="AI42" s="82"/>
+      <c r="AJ42" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="AK42" s="76"/>
-      <c r="AL42" s="76"/>
-      <c r="AM42" s="76"/>
-      <c r="AN42" s="76"/>
-      <c r="AO42" s="76"/>
-      <c r="AP42" s="76"/>
-      <c r="AQ42" s="76"/>
-      <c r="AR42" s="76"/>
-      <c r="AS42" s="76"/>
+      <c r="AK42" s="82"/>
+      <c r="AL42" s="82"/>
+      <c r="AM42" s="82"/>
+      <c r="AN42" s="82"/>
+      <c r="AO42" s="82"/>
+      <c r="AP42" s="82"/>
+      <c r="AQ42" s="82"/>
+      <c r="AR42" s="82"/>
+      <c r="AS42" s="82"/>
       <c r="AT42" s="22"/>
     </row>
     <row r="43" spans="1:46" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="94"/>
-      <c r="B43" s="95"/>
-      <c r="C43" s="94" t="s">
+      <c r="A43" s="100"/>
+      <c r="B43" s="101"/>
+      <c r="C43" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="95"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="94" t="s">
+      <c r="D43" s="101"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="95"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="92"/>
-      <c r="J43" s="93"/>
+      <c r="G43" s="101"/>
+      <c r="H43" s="102"/>
+      <c r="I43" s="98"/>
+      <c r="J43" s="99"/>
       <c r="L43" s="22" t="s">
         <v>15</v>
       </c>
@@ -65494,17 +66967,17 @@
       <c r="B44" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="85" t="s">
+      <c r="C44" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="86"/>
+      <c r="D44" s="92"/>
       <c r="E44" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="85" t="s">
+      <c r="F44" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="G44" s="86"/>
+      <c r="G44" s="92"/>
       <c r="H44" s="9" t="s">
         <v>65</v>
       </c>
